--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang4/2.XuLyBH/XLBH2304_CPCam.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang4/2.XuLyBH/XLBH2304_CPCam.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="4215" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="TG102SE" sheetId="51" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="72">
   <si>
     <t>STT</t>
   </si>
@@ -229,6 +229,24 @@
   </si>
   <si>
     <t>CP Cam</t>
+  </si>
+  <si>
+    <t>SE.4.00.---05.200416</t>
+  </si>
+  <si>
+    <t>125.212.203.114,14747</t>
+  </si>
+  <si>
+    <t>Thiết bị hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>SE.4.00.---06.200630</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Tùng</t>
   </si>
 </sst>
 </file>
@@ -634,6 +652,30 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -649,32 +691,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -985,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1018,41 +1036,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77"/>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="A1" s="69"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="40"/>
@@ -1085,57 +1103,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -1160,22 +1178,22 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="34" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="81"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1197,19 +1215,37 @@
         <v>63</v>
       </c>
       <c r="H6" s="39"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
+      <c r="I6" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="M6" s="63" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="64"/>
+      <c r="O6" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="64" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="65"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1240,7 +1276,7 @@
       <c r="R7" s="64"/>
       <c r="S7" s="65"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1269,7 +1305,7 @@
       <c r="R8" s="64"/>
       <c r="S8" s="65"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1298,7 +1334,7 @@
       <c r="R9" s="64"/>
       <c r="S9" s="65"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1327,7 +1363,7 @@
       <c r="R10" s="64"/>
       <c r="S10" s="65"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1356,7 +1392,7 @@
       <c r="R11" s="53"/>
       <c r="S11" s="55"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1385,7 +1421,7 @@
       <c r="R12" s="53"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1416,7 +1452,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1445,7 +1481,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1474,7 +1510,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1503,7 +1539,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3204,6 +3240,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3215,13 +3258,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3232,7 +3268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -3265,41 +3301,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77"/>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="A1" s="69"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="36"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="72"/>
       <c r="G2" s="4"/>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
@@ -3332,57 +3368,57 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="76"/>
-      <c r="L4" s="73" t="s">
+      <c r="K4" s="68"/>
+      <c r="L4" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="M4" s="73" t="s">
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="37"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
@@ -3413,16 +3449,16 @@
       <c r="K5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="76"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="68"/>
       <c r="P5" s="82"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="75"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="81"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3448,7 +3484,7 @@
       <c r="R6" s="31"/>
       <c r="S6" s="3"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3479,7 +3515,7 @@
       <c r="R7" s="31"/>
       <c r="S7" s="3"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3508,7 +3544,7 @@
       <c r="R8" s="31"/>
       <c r="S8" s="3"/>
       <c r="T8" s="12"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3537,7 +3573,7 @@
       <c r="R9" s="31"/>
       <c r="S9" s="3"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3566,7 +3602,7 @@
       <c r="R10" s="31"/>
       <c r="S10" s="3"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3595,7 +3631,7 @@
       <c r="R11" s="31"/>
       <c r="S11" s="3"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3624,7 +3660,7 @@
       <c r="R12" s="31"/>
       <c r="S12" s="3"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3655,7 +3691,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3684,7 +3720,7 @@
       <c r="R14" s="31"/>
       <c r="S14" s="3"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3713,7 +3749,7 @@
       <c r="R15" s="31"/>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3742,7 +3778,7 @@
       <c r="R16" s="31"/>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4973,13 +5009,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4991,6 +5020,13 @@
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="L4:L5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
